--- a/assets/sample.xlsx
+++ b/assets/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/general/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/general/Documents/Developer/Python/PileAnalyser/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020D6389-5A85-624F-895D-448E9DD55796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8436BA1-6797-E147-B19B-37D8AE2D9779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11660" yWindow="3500" windowWidth="25800" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33020" yWindow="4080" windowWidth="25800" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -30,41 +30,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
-  <si>
-    <t>採掘深度</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>N値</t>
-  </si>
-  <si>
-    <t>土質
-(砂=S, 粘土=C)</t>
-  </si>
-  <si>
-    <t>液状化低減係数</t>
   </si>
   <si>
     <t>採用低減係数</t>
   </si>
   <si>
-    <t>α
-(砂=80,粘土=60)</t>
+    <t>S</t>
   </si>
   <si>
-    <t>E0
-(実験値)</t>
-  </si>
-  <si>
-    <t>E0
-(700N)</t>
-  </si>
-  <si>
-    <t>αβE0
-(採用値)</t>
+    <t>E0</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土質</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>低減係数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深度</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -114,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -141,6 +139,9 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -359,49 +360,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD1000"/>
+  <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -420,10 +411,8 @@
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-    </row>
-    <row r="2" spans="1:30" ht="13">
+    </row>
+    <row r="2" spans="1:28" ht="13">
       <c r="A2" s="6">
         <v>1.1499999999999999</v>
       </c>
@@ -431,7 +420,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
@@ -443,16 +432,12 @@
         <f t="shared" ref="F2:F24" si="0">IF(C2="S",80,IF(C2="C",60,""))</f>
         <v>80</v>
       </c>
-      <c r="H2" s="10">
-        <f t="shared" ref="H2:H24" si="1">700*B2</f>
+      <c r="G2" s="10">
+        <f t="shared" ref="G2:G24" si="1">700*B2</f>
         <v>10500</v>
       </c>
-      <c r="I2" s="10">
-        <f t="shared" ref="I2:I24" si="2">IF(G2="",H2,G2)*F2*E2</f>
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="13">
+    </row>
+    <row r="3" spans="1:28" ht="13">
       <c r="A3" s="6">
         <v>2.15</v>
       </c>
@@ -460,7 +445,7 @@
         <v>1.9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="9">
@@ -470,16 +455,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="10">
         <f t="shared" si="1"/>
         <v>1330</v>
       </c>
-      <c r="I3" s="10">
-        <f t="shared" si="2"/>
-        <v>23408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="13">
+    </row>
+    <row r="4" spans="1:28" ht="13">
       <c r="A4" s="6">
         <v>3.15</v>
       </c>
@@ -487,7 +468,7 @@
         <v>3.9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D4" s="9">
         <v>0.22</v>
@@ -499,16 +480,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H4" s="10">
+      <c r="G4" s="10">
         <f t="shared" si="1"/>
         <v>2730</v>
       </c>
-      <c r="I4" s="10">
-        <f t="shared" si="2"/>
-        <v>48048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="13">
+    </row>
+    <row r="5" spans="1:28" ht="13">
       <c r="A5" s="6">
         <v>4.1500000000000004</v>
       </c>
@@ -516,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9">
@@ -526,16 +503,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="10">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="I5" s="10">
-        <f t="shared" si="2"/>
-        <v>19936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="13">
+    </row>
+    <row r="6" spans="1:28" ht="13">
       <c r="A6" s="6">
         <v>5.15</v>
       </c>
@@ -543,7 +516,7 @@
         <v>1.9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9">
         <v>0.13500000000000001</v>
@@ -555,16 +528,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H6" s="10">
+      <c r="G6" s="10">
         <f t="shared" si="1"/>
         <v>1330</v>
       </c>
-      <c r="I6" s="10">
-        <f t="shared" si="2"/>
-        <v>14364.000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="13">
+    </row>
+    <row r="7" spans="1:28" ht="13">
       <c r="A7" s="6">
         <v>6.15</v>
       </c>
@@ -572,7 +541,7 @@
         <v>3.9</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="9">
@@ -582,16 +551,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H7" s="10">
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
         <v>2730</v>
       </c>
-      <c r="I7" s="10">
-        <f t="shared" si="2"/>
-        <v>29484.000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="13">
+    </row>
+    <row r="8" spans="1:28" ht="13">
       <c r="A8" s="6">
         <v>7.15</v>
       </c>
@@ -599,7 +564,7 @@
         <v>4.8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -611,16 +576,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H8" s="10">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>3360</v>
       </c>
-      <c r="I8" s="10">
-        <f t="shared" si="2"/>
-        <v>268800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="13">
+    </row>
+    <row r="9" spans="1:28" ht="13">
       <c r="A9" s="6">
         <v>8.15</v>
       </c>
@@ -628,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9">
@@ -638,16 +599,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H9" s="10">
+      <c r="G9" s="10">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
-      <c r="I9" s="10">
-        <f t="shared" si="2"/>
-        <v>40040</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="13">
+    </row>
+    <row r="10" spans="1:28" ht="13">
       <c r="A10" s="6">
         <v>9.15</v>
       </c>
@@ -655,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" s="9">
         <v>0.14299999999999999</v>
@@ -667,16 +624,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H10" s="10">
+      <c r="G10" s="10">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="2"/>
-        <v>24023.999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="13">
+    </row>
+    <row r="11" spans="1:28" ht="13">
       <c r="A11" s="6">
         <v>10.15</v>
       </c>
@@ -684,7 +637,7 @@
         <v>4.5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="9">
@@ -694,16 +647,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H11" s="10">
+      <c r="G11" s="10">
         <f t="shared" si="1"/>
         <v>3150</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" si="2"/>
-        <v>36036</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="13">
+    </row>
+    <row r="12" spans="1:28" ht="13">
       <c r="A12" s="6">
         <v>11.15</v>
       </c>
@@ -711,7 +660,7 @@
         <v>5.8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
@@ -723,16 +672,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H12" s="10">
+      <c r="G12" s="10">
         <f t="shared" si="1"/>
         <v>4060</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" si="2"/>
-        <v>324800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="13">
+    </row>
+    <row r="13" spans="1:28" ht="13">
       <c r="A13" s="6">
         <v>12.15</v>
       </c>
@@ -740,7 +685,7 @@
         <v>2.5</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="9">
@@ -750,16 +695,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H13" s="10">
+      <c r="G13" s="10">
         <f t="shared" si="1"/>
         <v>1750</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="2"/>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="13">
+    </row>
+    <row r="14" spans="1:28" ht="13">
       <c r="A14" s="6">
         <v>13.15</v>
       </c>
@@ -767,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D14" s="9">
         <v>0.2</v>
@@ -779,16 +720,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H14" s="10">
+      <c r="G14" s="10">
         <f t="shared" si="1"/>
         <v>7700</v>
       </c>
-      <c r="I14" s="10">
-        <f t="shared" si="2"/>
-        <v>123200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="13">
+    </row>
+    <row r="15" spans="1:28" ht="13">
       <c r="A15" s="6">
         <v>14.15</v>
       </c>
@@ -796,7 +733,7 @@
         <v>105.9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="9">
@@ -806,16 +743,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H15" s="10">
+      <c r="G15" s="10">
         <f t="shared" si="1"/>
         <v>74130</v>
       </c>
-      <c r="I15" s="10">
-        <f t="shared" si="2"/>
-        <v>5930400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="13">
+    </row>
+    <row r="16" spans="1:28" ht="13">
       <c r="A16" s="6">
         <v>15.15</v>
       </c>
@@ -823,7 +756,7 @@
         <v>225</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="9">
@@ -833,16 +766,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H16" s="10">
+      <c r="G16" s="10">
         <f t="shared" si="1"/>
         <v>157500</v>
       </c>
-      <c r="I16" s="10">
-        <f t="shared" si="2"/>
-        <v>12600000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13">
+    </row>
+    <row r="17" spans="1:7" ht="13">
       <c r="A17" s="6">
         <v>16.149999999999999</v>
       </c>
@@ -850,7 +779,7 @@
         <v>163.6</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="9">
@@ -860,16 +789,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H17" s="10">
+      <c r="G17" s="10">
         <f t="shared" si="1"/>
         <v>114520</v>
       </c>
-      <c r="I17" s="10">
-        <f t="shared" si="2"/>
-        <v>9161600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13">
+    </row>
+    <row r="18" spans="1:7" ht="13">
       <c r="A18" s="6">
         <v>17.149999999999999</v>
       </c>
@@ -877,7 +802,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="9">
@@ -887,16 +812,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H18" s="10">
+      <c r="G18" s="10">
         <f t="shared" si="1"/>
         <v>34300</v>
       </c>
-      <c r="I18" s="10">
-        <f t="shared" si="2"/>
-        <v>2744000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13">
+    </row>
+    <row r="19" spans="1:7" ht="13">
       <c r="A19" s="6">
         <v>18.149999999999999</v>
       </c>
@@ -904,7 +825,7 @@
         <v>90</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="9">
@@ -914,16 +835,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H19" s="10">
+      <c r="G19" s="10">
         <f t="shared" si="1"/>
         <v>63000</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="2"/>
-        <v>5040000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13">
+    </row>
+    <row r="20" spans="1:7" ht="13">
       <c r="A20" s="6">
         <v>19.149999999999999</v>
       </c>
@@ -931,7 +848,7 @@
         <v>257.10000000000002</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="9">
@@ -941,16 +858,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H20" s="10">
+      <c r="G20" s="10">
         <f t="shared" si="1"/>
         <v>179970.00000000003</v>
       </c>
-      <c r="I20" s="10">
-        <f t="shared" si="2"/>
-        <v>14397600.000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13">
+    </row>
+    <row r="21" spans="1:7" ht="13">
       <c r="A21" s="6">
         <v>20.149999999999999</v>
       </c>
@@ -958,7 +871,7 @@
         <v>180</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="9">
@@ -968,16 +881,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H21" s="10">
+      <c r="G21" s="10">
         <f t="shared" si="1"/>
         <v>126000</v>
       </c>
-      <c r="I21" s="10">
-        <f t="shared" si="2"/>
-        <v>10080000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13">
+    </row>
+    <row r="22" spans="1:7" ht="13">
       <c r="A22" s="6">
         <v>21.15</v>
       </c>
@@ -985,7 +894,7 @@
         <v>450</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="9">
@@ -995,16 +904,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H22" s="10">
+      <c r="G22" s="10">
         <f t="shared" si="1"/>
         <v>315000</v>
       </c>
-      <c r="I22" s="10">
-        <f t="shared" si="2"/>
-        <v>25200000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13">
+    </row>
+    <row r="23" spans="1:7" ht="13">
       <c r="A23" s="6">
         <v>22.15</v>
       </c>
@@ -1012,7 +917,7 @@
         <v>128.6</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="9">
@@ -1022,16 +927,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H23" s="10">
+      <c r="G23" s="10">
         <f t="shared" si="1"/>
         <v>90020</v>
       </c>
-      <c r="I23" s="10">
-        <f t="shared" si="2"/>
-        <v>7201600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13">
+    </row>
+    <row r="24" spans="1:7" ht="13">
       <c r="A24" s="6">
         <v>23.1</v>
       </c>
@@ -1039,7 +940,7 @@
         <v>600</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="9">
@@ -1049,58 +950,54 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H24" s="10">
+      <c r="G24" s="10">
         <f t="shared" si="1"/>
         <v>420000</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="2"/>
-        <v>33600000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13">
+    </row>
+    <row r="25" spans="1:7" ht="13">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="13">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:9" ht="13">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="1:9" ht="13">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="6"/>
       <c r="B28" s="13"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:9" ht="13">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:9" ht="13">
+    <row r="30" spans="1:7" ht="13">
       <c r="A30" s="6"/>
       <c r="B30" s="13"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:9" ht="13">
+    <row r="31" spans="1:7" ht="13">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:9" ht="13">
+    <row r="32" spans="1:7" ht="13">
       <c r="A32" s="6"/>
       <c r="B32" s="13"/>
       <c r="D32" s="11"/>
